--- a/mex_match_results.xlsx
+++ b/mex_match_results.xlsx
@@ -4114,7 +4114,7 @@
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="N24" t="s">
         <v>435</v>
@@ -4123,7 +4123,7 @@
         <v>2.0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q24" t="n">
         <v>40418.0</v>
@@ -4374,7 +4374,7 @@
         <v>2.0</v>
       </c>
       <c r="M28" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N28" t="s">
         <v>430</v>
@@ -4383,7 +4383,7 @@
         <v>2.0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="Q28" t="n">
         <v>27228.0</v>
